--- a/src/resources/ulkeler.xlsx
+++ b/src/resources/ulkeler.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{523C32DD-DC84-46DD-A44B-08CA3EDEDC59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-4800" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-4800" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="Sayfa1" sheetId="1" r:id="rId1"/>
@@ -22,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="767" uniqueCount="576">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="771" uniqueCount="579">
   <si>
     <t>Ülke (İngilizce)</t>
   </si>
@@ -1750,12 +1749,21 @@
   </si>
   <si>
     <t>Muhammed</t>
+  </si>
+  <si>
+    <t>Nufus</t>
+  </si>
+  <si>
+    <t>150000</t>
+  </si>
+  <si>
+    <t>250000</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2175,11 +2183,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D191"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E191"/>
   <sheetViews>
-    <sheetView topLeftCell="A169" workbookViewId="0">
-      <selection activeCell="G121" sqref="G121"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2190,7 +2198,7 @@
     <col min="4" max="4" width="55.7109375" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2203,8 +2211,11 @@
       <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E1" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>4</v>
       </c>
@@ -2217,8 +2228,11 @@
       <c r="D2" s="6" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>8</v>
       </c>
@@ -2232,7 +2246,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>12</v>
       </c>
@@ -2242,11 +2256,11 @@
       <c r="C4" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="D4" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>15</v>
       </c>
@@ -2260,7 +2274,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>17</v>
       </c>
@@ -2274,7 +2288,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>19</v>
       </c>
@@ -2288,7 +2302,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>22</v>
       </c>
@@ -2302,7 +2316,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>25</v>
       </c>
@@ -2316,7 +2330,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>29</v>
       </c>
@@ -2329,8 +2343,11 @@
       <c r="D10" s="8" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E10" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
         <v>32</v>
       </c>
@@ -2344,7 +2361,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>36</v>
       </c>
@@ -2358,7 +2375,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
         <v>40</v>
       </c>
@@ -2372,7 +2389,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>43</v>
       </c>
@@ -2386,7 +2403,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
         <v>46</v>
       </c>
@@ -2399,8 +2416,11 @@
       <c r="D15" s="7" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E15" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
         <v>50</v>
       </c>
@@ -4871,10 +4891,10 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:C6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
@@ -4901,7 +4921,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58E46F7E-EBF0-44F2-AA2D-0668D88E0AD1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
